--- a/BBDD/B171_Qf BBDD.xlsx
+++ b/BBDD/B171_Qf BBDD.xlsx
@@ -6381,6 +6381,720 @@
         <v>44562</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427" t="n">
+        <v>17</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" t="n">
+        <v>5</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2</v>
+      </c>
+      <c r="D428" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" t="n">
+        <v>43</v>
+      </c>
+      <c r="C429" t="n">
+        <v>19</v>
+      </c>
+      <c r="D429" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430" t="n">
+        <v>3</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
+      <c r="D430" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>8</v>
+      </c>
+      <c r="B431" t="n">
+        <v>61</v>
+      </c>
+      <c r="C431" t="n">
+        <v>21</v>
+      </c>
+      <c r="D431" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>9</v>
+      </c>
+      <c r="B432" t="n">
+        <v>44</v>
+      </c>
+      <c r="C432" t="n">
+        <v>44</v>
+      </c>
+      <c r="D432" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" t="n">
+        <v>46</v>
+      </c>
+      <c r="C433" t="n">
+        <v>5</v>
+      </c>
+      <c r="D433" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>11</v>
+      </c>
+      <c r="B434" t="n">
+        <v>12</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2</v>
+      </c>
+      <c r="D434" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" t="n">
+        <v>46</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+      <c r="D435" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>13</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
+      <c r="D436" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437" t="n">
+        <v>62</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0</v>
+      </c>
+      <c r="D437" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>15</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
+      <c r="D438" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>16</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0</v>
+      </c>
+      <c r="D439" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" t="n">
+        <v>46</v>
+      </c>
+      <c r="C441" t="n">
+        <v>6</v>
+      </c>
+      <c r="D441" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" t="n">
+        <v>13</v>
+      </c>
+      <c r="C442" t="n">
+        <v>13</v>
+      </c>
+      <c r="D442" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>20</v>
+      </c>
+      <c r="B443" t="n">
+        <v>9</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+      <c r="D443" s="1" t="n">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" t="n">
+        <v>26</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
+      <c r="D444" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" t="n">
+        <v>6</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
+      <c r="D445" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" t="n">
+        <v>73</v>
+      </c>
+      <c r="C446" t="n">
+        <v>35</v>
+      </c>
+      <c r="D446" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" t="n">
+        <v>9</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+      <c r="D447" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>8</v>
+      </c>
+      <c r="B448" t="n">
+        <v>66</v>
+      </c>
+      <c r="C448" t="n">
+        <v>17</v>
+      </c>
+      <c r="D448" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>9</v>
+      </c>
+      <c r="B449" t="n">
+        <v>72</v>
+      </c>
+      <c r="C449" t="n">
+        <v>72</v>
+      </c>
+      <c r="D449" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" t="n">
+        <v>53</v>
+      </c>
+      <c r="C450" t="n">
+        <v>6</v>
+      </c>
+      <c r="D450" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451" t="n">
+        <v>7</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0</v>
+      </c>
+      <c r="D451" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" t="n">
+        <v>83</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0</v>
+      </c>
+      <c r="D452" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>13</v>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0</v>
+      </c>
+      <c r="D453" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>14</v>
+      </c>
+      <c r="B454" t="n">
+        <v>78</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0</v>
+      </c>
+      <c r="D454" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>15</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0</v>
+      </c>
+      <c r="D455" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>16</v>
+      </c>
+      <c r="B456" t="n">
+        <v>5</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0</v>
+      </c>
+      <c r="D456" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>17</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0</v>
+      </c>
+      <c r="D457" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458" t="n">
+        <v>52</v>
+      </c>
+      <c r="C458" t="n">
+        <v>13</v>
+      </c>
+      <c r="D458" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>21</v>
+      </c>
+      <c r="B459" t="n">
+        <v>8</v>
+      </c>
+      <c r="C459" t="n">
+        <v>5</v>
+      </c>
+      <c r="D459" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>20</v>
+      </c>
+      <c r="B460" t="n">
+        <v>20</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+      <c r="D460" s="1" t="n">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" t="n">
+        <v>15</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+      <c r="D461" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" t="n">
+        <v>11</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0</v>
+      </c>
+      <c r="D462" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>6</v>
+      </c>
+      <c r="B463" t="n">
+        <v>56</v>
+      </c>
+      <c r="C463" t="n">
+        <v>26</v>
+      </c>
+      <c r="D463" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" t="n">
+        <v>7</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0</v>
+      </c>
+      <c r="D464" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>8</v>
+      </c>
+      <c r="B465" t="n">
+        <v>75</v>
+      </c>
+      <c r="C465" t="n">
+        <v>26</v>
+      </c>
+      <c r="D465" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>9</v>
+      </c>
+      <c r="B466" t="n">
+        <v>96</v>
+      </c>
+      <c r="C466" t="n">
+        <v>96</v>
+      </c>
+      <c r="D466" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>10</v>
+      </c>
+      <c r="B467" t="n">
+        <v>52</v>
+      </c>
+      <c r="C467" t="n">
+        <v>5</v>
+      </c>
+      <c r="D467" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>11</v>
+      </c>
+      <c r="B468" t="n">
+        <v>6</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1</v>
+      </c>
+      <c r="D468" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" t="n">
+        <v>50</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0</v>
+      </c>
+      <c r="D469" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>13</v>
+      </c>
+      <c r="B470" t="n">
+        <v>2</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+      <c r="D470" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>14</v>
+      </c>
+      <c r="B471" t="n">
+        <v>66</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1</v>
+      </c>
+      <c r="D471" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>15</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
+      <c r="D472" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" t="n">
+        <v>4</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0</v>
+      </c>
+      <c r="D473" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>17</v>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
+      <c r="D474" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>18</v>
+      </c>
+      <c r="B475" t="n">
+        <v>58</v>
+      </c>
+      <c r="C475" t="n">
+        <v>3</v>
+      </c>
+      <c r="D475" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>21</v>
+      </c>
+      <c r="B476" t="n">
+        <v>31</v>
+      </c>
+      <c r="C476" t="n">
+        <v>31</v>
+      </c>
+      <c r="D476" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>20</v>
+      </c>
+      <c r="B477" t="n">
+        <v>5</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0</v>
+      </c>
+      <c r="D477" s="1" t="n">
+        <v>44652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
